--- a/biology/Botanique/Centranthus_angustifolius/Centranthus_angustifolius.xlsx
+++ b/biology/Botanique/Centranthus_angustifolius/Centranthus_angustifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centranthe à feuilles étroites (Centranthus angustifolius) est une espèce de plantes herbacées vivaces de la famille des Caprifoliacées (anciennement des Valérianacées).
-Comme l'indique son nom, ses feuilles sont étroites, larges de 2 à 5 mm, longues de 8 à 15 mm[1].Moins fréquent que le centranthe rouge (Centranthus ruber), il le remplace dans les montagnes de l'ouest du bassin méditerranéen jusqu'à une altitude de 2 400 m[2]. Il apprécie les éboulis calcaires, les rochers... Il fleurit de mai à juillet.
+Comme l'indique son nom, ses feuilles sont étroites, larges de 2 à 5 mm, longues de 8 à 15 mm.Moins fréquent que le centranthe rouge (Centranthus ruber), il le remplace dans les montagnes de l'ouest du bassin méditerranéen jusqu'à une altitude de 2 400 m. Il apprécie les éboulis calcaires, les rochers... Il fleurit de mai à juillet.
 </t>
         </is>
       </c>
